--- a/branches/merging/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/merging/StructureDefinition-Bundle-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15505" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14365" uniqueCount="711">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -896,10 +896,7 @@
     <t>composition</t>
   </si>
   <si>
-    <t>Entry in the bundle - will have a resource or information</t>
-  </si>
-  <si>
-    <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
+    <t>ePI Composition</t>
   </si>
   <si>
     <t>Bundle.entry:composition.id</t>
@@ -1021,109 +1018,13 @@
     <t>Bundle.entry:composition.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:list</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.resource</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:list.response.outcome</t>
-  </si>
-  <si>
     <t>Bundle.entry:organization</t>
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>Organization</t>
   </si>
   <si>
     <t>Bundle.entry:organization.id</t>
@@ -1248,6 +1149,9 @@
     <t>authorization</t>
   </si>
   <si>
+    <t>Regulated Authorization</t>
+  </si>
+  <si>
     <t>Bundle.entry:authorization.id</t>
   </si>
   <si>
@@ -1363,6 +1267,12 @@
     <t>medicinalProduct</t>
   </si>
   <si>
+    <t>Medicinal Product</t>
+  </si>
+  <si>
+    <t>Medicinal Product Definition</t>
+  </si>
+  <si>
     <t>Bundle.entry:medicinalProduct.id</t>
   </si>
   <si>
@@ -1469,10 +1379,131 @@
     <t>Bundle.entry:medicinalProduct.response.outcome</t>
   </si>
   <si>
+    <t>Bundle.entry:packagedProduct</t>
+  </si>
+  <si>
+    <t>packagedProduct</t>
+  </si>
+  <si>
+    <t>Packaged Product</t>
+  </si>
+  <si>
+    <t>Packaged Product Definition</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PackagedProductDefinition {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/PackagedProductDefinition-uv-epi}
+</t>
+  </si>
+  <si>
+    <t>A medically related item or items, in a container or package</t>
+  </si>
+  <si>
+    <t>A medically related item or items, in a container or package.</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:packagedProduct.response.outcome</t>
+  </si>
+  <si>
     <t>Bundle.entry:administrableProduct</t>
   </si>
   <si>
     <t>administrableProduct</t>
+  </si>
+  <si>
+    <t>Administrable Product</t>
+  </si>
+  <si>
+    <t>Administrable Product Definition</t>
   </si>
   <si>
     <t>Bundle.entry:administrableProduct.id</t>
@@ -1586,28 +1617,34 @@
     <t>Bundle.entry:administrableProduct.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:manItem</t>
-  </si>
-  <si>
-    <t>manItem</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.resource</t>
+    <t>Bundle.entry:manufacturedItem</t>
+  </si>
+  <si>
+    <t>manufacturedItem</t>
+  </si>
+  <si>
+    <t>Manufactured Item</t>
+  </si>
+  <si>
+    <t>Manufactured Item Definition</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.resource</t>
   </si>
   <si>
     <t xml:space="preserve">ManufacturedItemDefinition {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/ManufacturedItemDefinition-uv-epi}
@@ -1620,85 +1657,88 @@
     <t>The definition and characteristics of a medicinal manufactured item, such as a tablet or capsule, as contained in a packaged medicinal product.</t>
   </si>
   <si>
-    <t>Bundle.entry:manItem.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:manItem.response.outcome</t>
+    <t>Bundle.entry:manufacturedItem.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:manufacturedItem.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:ingredient</t>
   </si>
   <si>
     <t>ingredient</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
   </si>
   <si>
     <t>Bundle.entry:ingredient.id</t>
@@ -1808,119 +1848,122 @@
     <t>Bundle.entry:ingredient.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:packagedProduct</t>
-  </si>
-  <si>
-    <t>packagedProduct</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PackagedProductDefinition {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/PackagedProductDefinition-uv-epi}
+    <t>Bundle.entry:clinicalUse</t>
+  </si>
+  <si>
+    <t>clinicalUse</t>
+  </si>
+  <si>
+    <t>Interactions, Warnings, Indications,Contraindications</t>
+  </si>
+  <si>
+    <t>ePI ClinicalUseDefinition used for Interactions, Warnings,Indication, Contraindication</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClinicalUseDefinition
 </t>
   </si>
   <si>
-    <t>A medically related item or items, in a container or package</t>
-  </si>
-  <si>
-    <t>A medically related item or items, in a container or package.</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:packagedProduct.response.outcome</t>
+    <t>Bundle.entry:clinicalUse.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:clinicalUse.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:substanceDefinition</t>
   </si>
   <si>
     <t>substanceDefinition</t>
+  </si>
+  <si>
+    <t>Substance Definition</t>
   </si>
   <si>
     <t>Bundle.entry:substanceDefinition.id</t>
@@ -2032,6 +2075,9 @@
     <t>binary</t>
   </si>
   <si>
+    <t>Binary</t>
+  </si>
+  <si>
     <t>Bundle.entry:binary.id</t>
   </si>
   <si>
@@ -2127,109 +2173,6 @@
   </si>
   <si>
     <t>Bundle.entry:binary.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse</t>
-  </si>
-  <si>
-    <t>clinicalUse</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClinicalUseDefinition
-</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:clinicalUse.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -2573,7 +2516,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN434"/>
+  <dimension ref="A1:AN402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8103,7 +8046,7 @@
         <v>278</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8183,7 +8126,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>188</v>
@@ -8295,7 +8238,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>189</v>
@@ -8409,7 +8352,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>190</v>
@@ -8525,7 +8468,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>191</v>
@@ -8637,7 +8580,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>194</v>
@@ -8751,7 +8694,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>199</v>
@@ -8777,16 +8720,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8848,24 +8791,24 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>204</v>
@@ -8977,7 +8920,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>208</v>
@@ -9089,7 +9032,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>209</v>
@@ -9203,7 +9146,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>210</v>
@@ -9319,7 +9262,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>211</v>
@@ -9433,7 +9376,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>217</v>
@@ -9547,7 +9490,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>222</v>
@@ -9659,7 +9602,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>226</v>
@@ -9771,7 +9714,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>227</v>
@@ -9885,7 +9828,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>228</v>
@@ -10001,7 +9944,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>229</v>
@@ -10113,7 +10056,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>235</v>
@@ -10227,7 +10170,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>239</v>
@@ -10339,7 +10282,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>242</v>
@@ -10451,7 +10394,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>245</v>
@@ -10563,7 +10506,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>248</v>
@@ -10675,7 +10618,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>251</v>
@@ -10787,7 +10730,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>255</v>
@@ -10899,7 +10842,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>256</v>
@@ -11013,7 +10956,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>257</v>
@@ -11129,7 +11072,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>258</v>
@@ -11241,7 +11184,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>261</v>
@@ -11353,7 +11296,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>264</v>
@@ -11467,7 +11410,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>268</v>
@@ -11581,7 +11524,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>272</v>
@@ -11695,13 +11638,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -11726,10 +11669,10 @@
         <v>148</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12177,7 +12120,7 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>192</v>
@@ -12400,16 +12343,16 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>201</v>
+        <v>328</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>202</v>
+        <v>329</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12469,19 +12412,19 @@
         <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12489,7 +12432,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>204</v>
@@ -12601,7 +12544,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>208</v>
@@ -12713,7 +12656,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>209</v>
@@ -12827,7 +12770,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>210</v>
@@ -12943,7 +12886,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>211</v>
@@ -13057,7 +13000,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>217</v>
@@ -13171,7 +13114,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>222</v>
@@ -13283,7 +13226,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>226</v>
@@ -13395,7 +13338,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>227</v>
@@ -13509,7 +13452,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>228</v>
@@ -13625,7 +13568,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>229</v>
@@ -13737,7 +13680,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>235</v>
@@ -13851,7 +13794,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>239</v>
@@ -13963,7 +13906,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>242</v>
@@ -14075,7 +14018,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>245</v>
@@ -14187,7 +14130,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>248</v>
@@ -14299,7 +14242,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>251</v>
@@ -14411,7 +14354,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>255</v>
@@ -14523,7 +14466,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>256</v>
@@ -14637,7 +14580,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>257</v>
@@ -14753,7 +14696,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>258</v>
@@ -14865,7 +14808,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>261</v>
@@ -14977,7 +14920,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>264</v>
@@ -15091,7 +15034,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>268</v>
@@ -15205,7 +15148,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>272</v>
@@ -15319,13 +15262,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -15350,10 +15293,10 @@
         <v>148</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15433,7 +15376,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>188</v>
@@ -15545,7 +15488,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>189</v>
@@ -15659,7 +15602,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>190</v>
@@ -15775,7 +15718,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>191</v>
@@ -15801,7 +15744,7 @@
         <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>192</v>
@@ -15887,7 +15830,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>194</v>
@@ -16001,7 +15944,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>199</v>
@@ -16027,13 +15970,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16096,16 +16039,16 @@
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>363</v>
+        <v>289</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16113,7 +16056,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>204</v>
@@ -16225,7 +16168,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>208</v>
@@ -16337,7 +16280,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>209</v>
@@ -16451,7 +16394,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>210</v>
@@ -16567,7 +16510,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>211</v>
@@ -16681,7 +16624,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>217</v>
@@ -16795,7 +16738,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>222</v>
@@ -16907,7 +16850,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>226</v>
@@ -17019,7 +16962,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>227</v>
@@ -17133,7 +17076,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>228</v>
@@ -17249,7 +17192,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>229</v>
@@ -17361,7 +17304,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>235</v>
@@ -17475,7 +17418,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>239</v>
@@ -17587,7 +17530,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>242</v>
@@ -17699,7 +17642,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>245</v>
@@ -17811,7 +17754,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>248</v>
@@ -17923,7 +17866,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>251</v>
@@ -18035,7 +17978,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>255</v>
@@ -18147,7 +18090,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>256</v>
@@ -18261,7 +18204,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>257</v>
@@ -18377,7 +18320,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>258</v>
@@ -18489,7 +18432,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>261</v>
@@ -18601,7 +18544,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>264</v>
@@ -18715,7 +18658,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>268</v>
@@ -18829,7 +18772,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>272</v>
@@ -18943,13 +18886,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -18974,10 +18917,10 @@
         <v>148</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>279</v>
+        <v>401</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19057,7 +19000,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>188</v>
@@ -19169,7 +19112,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>189</v>
@@ -19283,7 +19226,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>190</v>
@@ -19399,7 +19342,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>191</v>
@@ -19511,7 +19454,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>194</v>
@@ -19625,7 +19568,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>199</v>
@@ -19651,13 +19594,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19720,16 +19663,16 @@
         <v>77</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>77</v>
@@ -19737,7 +19680,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>204</v>
@@ -19849,7 +19792,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>208</v>
@@ -19961,7 +19904,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>209</v>
@@ -20075,7 +20018,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>210</v>
@@ -20191,7 +20134,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>211</v>
@@ -20305,7 +20248,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>217</v>
@@ -20419,7 +20362,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>222</v>
@@ -20531,7 +20474,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>226</v>
@@ -20643,7 +20586,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>227</v>
@@ -20757,7 +20700,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>228</v>
@@ -20873,7 +20816,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>229</v>
@@ -20985,7 +20928,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>235</v>
@@ -21099,7 +21042,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>239</v>
@@ -21211,7 +21154,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>242</v>
@@ -21323,7 +21266,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>245</v>
@@ -21435,7 +21378,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>248</v>
@@ -21547,7 +21490,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>251</v>
@@ -21659,7 +21602,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>255</v>
@@ -21771,7 +21714,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>256</v>
@@ -21885,7 +21828,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>257</v>
@@ -22001,7 +21944,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>258</v>
@@ -22113,7 +22056,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>261</v>
@@ -22225,7 +22168,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>264</v>
@@ -22339,7 +22282,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>268</v>
@@ -22453,7 +22396,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>272</v>
@@ -22567,13 +22510,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -22598,10 +22541,10 @@
         <v>148</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>278</v>
+        <v>439</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>279</v>
+        <v>440</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -22681,7 +22624,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>188</v>
@@ -22793,7 +22736,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>189</v>
@@ -22907,7 +22850,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>190</v>
@@ -23023,7 +22966,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>191</v>
@@ -23135,7 +23078,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>194</v>
@@ -23249,7 +23192,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>199</v>
@@ -23275,13 +23218,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -23344,16 +23287,16 @@
         <v>77</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>441</v>
+        <v>372</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>77</v>
@@ -23361,7 +23304,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>204</v>
@@ -23473,7 +23416,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>208</v>
@@ -23585,7 +23528,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>209</v>
@@ -23699,7 +23642,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>210</v>
@@ -23815,7 +23758,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>211</v>
@@ -23929,7 +23872,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>217</v>
@@ -24043,7 +23986,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>222</v>
@@ -24155,7 +24098,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>226</v>
@@ -24267,7 +24210,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>227</v>
@@ -24381,7 +24324,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>228</v>
@@ -24497,7 +24440,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>229</v>
@@ -24609,7 +24552,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>235</v>
@@ -24723,7 +24666,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>239</v>
@@ -24835,7 +24778,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>242</v>
@@ -24947,7 +24890,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>245</v>
@@ -25059,7 +25002,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>248</v>
@@ -25171,7 +25114,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>251</v>
@@ -25283,7 +25226,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>255</v>
@@ -25395,7 +25338,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>256</v>
@@ -25509,7 +25452,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>257</v>
@@ -25625,7 +25568,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>258</v>
@@ -25737,7 +25680,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>261</v>
@@ -25849,7 +25792,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>264</v>
@@ -25963,7 +25906,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>268</v>
@@ -26077,7 +26020,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>272</v>
@@ -26191,13 +26134,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -26222,10 +26165,10 @@
         <v>148</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>278</v>
+        <v>477</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>279</v>
+        <v>478</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -26305,7 +26248,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>188</v>
@@ -26417,7 +26360,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>189</v>
@@ -26531,7 +26474,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>190</v>
@@ -26647,7 +26590,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>191</v>
@@ -26759,7 +26702,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>194</v>
@@ -26873,14 +26816,14 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>199</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -26899,13 +26842,13 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -26968,16 +26911,16 @@
         <v>77</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="AL215" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="AN215" t="s" s="2">
         <v>77</v>
@@ -26985,7 +26928,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>204</v>
@@ -27097,7 +27040,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>208</v>
@@ -27209,7 +27152,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>209</v>
@@ -27323,7 +27266,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>210</v>
@@ -27439,7 +27382,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>211</v>
@@ -27553,7 +27496,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>217</v>
@@ -27667,7 +27610,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>222</v>
@@ -27779,7 +27722,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>226</v>
@@ -27891,7 +27834,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>227</v>
@@ -28005,7 +27948,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>228</v>
@@ -28121,7 +28064,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>229</v>
@@ -28233,7 +28176,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>235</v>
@@ -28347,7 +28290,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>239</v>
@@ -28459,7 +28402,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>242</v>
@@ -28571,7 +28514,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>245</v>
@@ -28683,7 +28626,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>248</v>
@@ -28795,7 +28738,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>251</v>
@@ -28907,7 +28850,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>255</v>
@@ -29019,7 +28962,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>256</v>
@@ -29133,7 +29076,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>257</v>
@@ -29249,7 +29192,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>258</v>
@@ -29361,7 +29304,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>261</v>
@@ -29473,7 +29416,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>264</v>
@@ -29587,7 +29530,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>268</v>
@@ -29701,7 +29644,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>272</v>
@@ -29815,13 +29758,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>77</v>
@@ -29846,10 +29789,10 @@
         <v>148</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>278</v>
+        <v>517</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>279</v>
+        <v>518</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
@@ -29929,7 +29872,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>188</v>
@@ -30041,7 +29984,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>189</v>
@@ -30155,7 +30098,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>190</v>
@@ -30271,7 +30214,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>191</v>
@@ -30383,7 +30326,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>194</v>
@@ -30497,7 +30440,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>199</v>
@@ -30523,13 +30466,13 @@
         <v>77</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -30592,16 +30535,16 @@
         <v>77</v>
       </c>
       <c r="AJ247" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="AL247" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM247" t="s" s="2">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="AN247" t="s" s="2">
         <v>77</v>
@@ -30609,7 +30552,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>204</v>
@@ -30721,7 +30664,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>208</v>
@@ -30833,7 +30776,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>209</v>
@@ -30947,7 +30890,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>210</v>
@@ -31063,7 +31006,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>211</v>
@@ -31177,7 +31120,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>217</v>
@@ -31291,7 +31234,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>222</v>
@@ -31403,7 +31346,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>226</v>
@@ -31515,7 +31458,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>227</v>
@@ -31629,7 +31572,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>228</v>
@@ -31745,7 +31688,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>229</v>
@@ -31857,7 +31800,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>235</v>
@@ -31971,7 +31914,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>239</v>
@@ -32083,7 +32026,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>242</v>
@@ -32195,7 +32138,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>245</v>
@@ -32307,7 +32250,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>248</v>
@@ -32419,7 +32362,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>251</v>
@@ -32531,7 +32474,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>255</v>
@@ -32643,7 +32586,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>256</v>
@@ -32757,7 +32700,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>257</v>
@@ -32873,7 +32816,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>258</v>
@@ -32985,7 +32928,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>261</v>
@@ -33097,7 +33040,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>264</v>
@@ -33211,7 +33154,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>268</v>
@@ -33325,7 +33268,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>272</v>
@@ -33439,13 +33382,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>77</v>
@@ -33470,10 +33413,10 @@
         <v>148</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>278</v>
+        <v>555</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>279</v>
+        <v>555</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
@@ -33553,7 +33496,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>188</v>
@@ -33665,7 +33608,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>189</v>
@@ -33779,7 +33722,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>190</v>
@@ -33895,7 +33838,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>191</v>
@@ -34007,7 +33950,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>194</v>
@@ -34121,7 +34064,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>199</v>
@@ -34147,13 +34090,13 @@
         <v>77</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -34216,16 +34159,16 @@
         <v>77</v>
       </c>
       <c r="AJ279" t="s" s="2">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="AL279" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM279" t="s" s="2">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="AN279" t="s" s="2">
         <v>77</v>
@@ -34233,7 +34176,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>204</v>
@@ -34345,7 +34288,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>208</v>
@@ -34457,7 +34400,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>209</v>
@@ -34571,7 +34514,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>210</v>
@@ -34687,7 +34630,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>211</v>
@@ -34801,7 +34744,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>217</v>
@@ -34915,7 +34858,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>222</v>
@@ -35027,7 +34970,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>226</v>
@@ -35139,7 +35082,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>227</v>
@@ -35253,7 +35196,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>228</v>
@@ -35369,7 +35312,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>229</v>
@@ -35481,7 +35424,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>235</v>
@@ -35595,7 +35538,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>239</v>
@@ -35707,7 +35650,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>242</v>
@@ -35819,7 +35762,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>245</v>
@@ -35931,7 +35874,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>248</v>
@@ -36043,7 +35986,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>251</v>
@@ -36155,7 +36098,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>255</v>
@@ -36267,7 +36210,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>256</v>
@@ -36381,7 +36324,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>257</v>
@@ -36497,7 +36440,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>258</v>
@@ -36609,7 +36552,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>261</v>
@@ -36721,7 +36664,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>264</v>
@@ -36835,7 +36778,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>268</v>
@@ -36949,7 +36892,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>272</v>
@@ -37063,13 +37006,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="D305" t="s" s="2">
         <v>77</v>
@@ -37094,10 +37037,10 @@
         <v>148</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>278</v>
+        <v>593</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>279</v>
+        <v>594</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
@@ -37177,7 +37120,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>188</v>
@@ -37289,7 +37232,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>189</v>
@@ -37403,7 +37346,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>190</v>
@@ -37519,7 +37462,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>191</v>
@@ -37631,7 +37574,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>194</v>
@@ -37745,7 +37688,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>199</v>
@@ -37768,16 +37711,16 @@
         <v>77</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>587</v>
+        <v>201</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>588</v>
+        <v>202</v>
       </c>
       <c r="N311" s="2"/>
       <c r="O311" s="2"/>
@@ -37837,19 +37780,19 @@
         <v>88</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AL311" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM311" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AN311" t="s" s="2">
         <v>77</v>
@@ -37857,7 +37800,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>204</v>
@@ -37969,7 +37912,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>208</v>
@@ -38081,7 +38024,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>209</v>
@@ -38195,7 +38138,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>210</v>
@@ -38311,7 +38254,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>211</v>
@@ -38425,7 +38368,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>217</v>
@@ -38539,7 +38482,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>222</v>
@@ -38651,7 +38594,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>226</v>
@@ -38763,7 +38706,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>227</v>
@@ -38877,7 +38820,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>228</v>
@@ -38993,7 +38936,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>229</v>
@@ -39105,7 +39048,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>235</v>
@@ -39219,7 +39162,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>239</v>
@@ -39331,7 +39274,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>242</v>
@@ -39443,7 +39386,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>245</v>
@@ -39555,7 +39498,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>248</v>
@@ -39667,7 +39610,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>251</v>
@@ -39779,7 +39722,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>255</v>
@@ -39891,7 +39834,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>256</v>
@@ -40005,7 +39948,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>257</v>
@@ -40121,7 +40064,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>258</v>
@@ -40233,7 +40176,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>261</v>
@@ -40345,7 +40288,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>264</v>
@@ -40459,7 +40402,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>268</v>
@@ -40573,7 +40516,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>272</v>
@@ -40687,13 +40630,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="D337" t="s" s="2">
         <v>77</v>
@@ -40718,10 +40661,10 @@
         <v>148</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>278</v>
+        <v>629</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>279</v>
+        <v>629</v>
       </c>
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
@@ -40801,7 +40744,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>188</v>
@@ -40913,7 +40856,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>189</v>
@@ -41027,7 +40970,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>190</v>
@@ -41143,7 +41086,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>191</v>
@@ -41255,7 +41198,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>194</v>
@@ -41369,7 +41312,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>199</v>
@@ -41395,13 +41338,13 @@
         <v>77</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="N343" s="2"/>
       <c r="O343" s="2"/>
@@ -41464,16 +41407,16 @@
         <v>77</v>
       </c>
       <c r="AJ343" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="AL343" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM343" t="s" s="2">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="AN343" t="s" s="2">
         <v>77</v>
@@ -41481,7 +41424,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>204</v>
@@ -41593,7 +41536,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>208</v>
@@ -41705,7 +41648,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>209</v>
@@ -41819,7 +41762,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>210</v>
@@ -41935,7 +41878,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>211</v>
@@ -42049,7 +41992,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>217</v>
@@ -42163,7 +42106,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>222</v>
@@ -42275,7 +42218,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>226</v>
@@ -42387,7 +42330,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>227</v>
@@ -42501,7 +42444,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>228</v>
@@ -42617,7 +42560,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>229</v>
@@ -42729,7 +42672,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>235</v>
@@ -42843,7 +42786,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>239</v>
@@ -42955,7 +42898,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>242</v>
@@ -43067,7 +43010,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>245</v>
@@ -43179,7 +43122,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>248</v>
@@ -43291,7 +43234,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>251</v>
@@ -43403,7 +43346,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>255</v>
@@ -43515,7 +43458,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>256</v>
@@ -43629,7 +43572,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>257</v>
@@ -43745,7 +43688,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>258</v>
@@ -43857,7 +43800,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>261</v>
@@ -43969,7 +43912,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>264</v>
@@ -44083,7 +44026,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>268</v>
@@ -44197,7 +44140,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>272</v>
@@ -44311,13 +44254,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>77</v>
@@ -44342,10 +44285,10 @@
         <v>148</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>278</v>
+        <v>666</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>279</v>
+        <v>666</v>
       </c>
       <c r="N369" s="2"/>
       <c r="O369" s="2"/>
@@ -44425,7 +44368,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>188</v>
@@ -44537,7 +44480,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>189</v>
@@ -44651,7 +44594,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>190</v>
@@ -44767,7 +44710,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>191</v>
@@ -44879,7 +44822,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>194</v>
@@ -44993,7 +44936,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>199</v>
@@ -45019,7 +44962,7 @@
         <v>89</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="L375" t="s" s="2">
         <v>201</v>
@@ -45105,7 +45048,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>204</v>
@@ -45217,7 +45160,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>208</v>
@@ -45329,7 +45272,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>209</v>
@@ -45443,7 +45386,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>210</v>
@@ -45559,7 +45502,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>211</v>
@@ -45673,7 +45616,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>217</v>
@@ -45787,7 +45730,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>222</v>
@@ -45899,7 +45842,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>226</v>
@@ -46011,7 +45954,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>227</v>
@@ -46125,7 +46068,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>228</v>
@@ -46241,7 +46184,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>229</v>
@@ -46353,7 +46296,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>235</v>
@@ -46467,7 +46410,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>239</v>
@@ -46579,7 +46522,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>242</v>
@@ -46691,7 +46634,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>245</v>
@@ -46803,7 +46746,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>248</v>
@@ -46915,7 +46858,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>251</v>
@@ -47027,7 +46970,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>255</v>
@@ -47139,7 +47082,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>256</v>
@@ -47253,7 +47196,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>257</v>
@@ -47369,7 +47312,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>258</v>
@@ -47481,7 +47424,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>261</v>
@@ -47593,7 +47536,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>264</v>
@@ -47707,7 +47650,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>268</v>
@@ -47821,7 +47764,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>272</v>
@@ -47935,14 +47878,12 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C401" t="s" s="2">
-        <v>685</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="C401" s="2"/>
       <c r="D401" t="s" s="2">
         <v>77</v>
       </c>
@@ -47951,7 +47892,7 @@
         <v>78</v>
       </c>
       <c r="G401" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H401" t="s" s="2">
         <v>77</v>
@@ -47963,16 +47904,20 @@
         <v>89</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>148</v>
+        <v>700</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>278</v>
+        <v>701</v>
       </c>
       <c r="M401" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N401" s="2"/>
-      <c r="O401" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="N401" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="O401" t="s" s="2">
+        <v>704</v>
+      </c>
       <c r="P401" t="s" s="2">
         <v>77</v>
       </c>
@@ -48020,19 +47965,19 @@
         <v>77</v>
       </c>
       <c r="AF401" t="s" s="2">
-        <v>181</v>
+        <v>699</v>
       </c>
       <c r="AG401" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH401" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI401" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ401" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="AK401" t="s" s="2">
         <v>77</v>
@@ -48049,10 +47994,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>188</v>
+        <v>705</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" t="s" s="2">
@@ -48072,18 +48017,20 @@
         <v>77</v>
       </c>
       <c r="J402" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>154</v>
+        <v>706</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>155</v>
+        <v>707</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N402" s="2"/>
+        <v>708</v>
+      </c>
+      <c r="N402" t="s" s="2">
+        <v>709</v>
+      </c>
       <c r="O402" s="2"/>
       <c r="P402" t="s" s="2">
         <v>77</v>
@@ -48132,7 +48079,7 @@
         <v>77</v>
       </c>
       <c r="AF402" t="s" s="2">
-        <v>157</v>
+        <v>705</v>
       </c>
       <c r="AG402" t="s" s="2">
         <v>78</v>
@@ -48141,7 +48088,7 @@
         <v>88</v>
       </c>
       <c r="AI402" t="s" s="2">
-        <v>158</v>
+        <v>710</v>
       </c>
       <c r="AJ402" t="s" s="2">
         <v>77</v>
@@ -48153,3637 +48100,9 @@
         <v>77</v>
       </c>
       <c r="AM402" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AN402" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="B403" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C403" s="2"/>
-      <c r="D403" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E403" s="2"/>
-      <c r="F403" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K403" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L403" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M403" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N403" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O403" s="2"/>
-      <c r="P403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q403" s="2"/>
-      <c r="R403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF403" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG403" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH403" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ403" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL403" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM403" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN403" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="B404" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C404" s="2"/>
-      <c r="D404" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E404" s="2"/>
-      <c r="F404" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I404" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J404" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K404" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L404" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M404" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N404" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O404" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q404" s="2"/>
-      <c r="R404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF404" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG404" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH404" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ404" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL404" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM404" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN404" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="B405" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C405" s="2"/>
-      <c r="D405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E405" s="2"/>
-      <c r="F405" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J405" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L405" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M405" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N405" s="2"/>
-      <c r="O405" s="2"/>
-      <c r="P405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q405" s="2"/>
-      <c r="R405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF405" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG405" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH405" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ405" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM405" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN405" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="B406" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C406" s="2"/>
-      <c r="D406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E406" s="2"/>
-      <c r="F406" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G406" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J406" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K406" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L406" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M406" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N406" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O406" s="2"/>
-      <c r="P406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q406" s="2"/>
-      <c r="R406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF406" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG406" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH406" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI406" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AJ406" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM406" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN406" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="B407" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C407" s="2"/>
-      <c r="D407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E407" s="2"/>
-      <c r="F407" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G407" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J407" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K407" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="L407" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M407" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N407" s="2"/>
-      <c r="O407" s="2"/>
-      <c r="P407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q407" s="2"/>
-      <c r="R407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF407" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AG407" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH407" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI407" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AJ407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM407" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN407" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="B408" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C408" s="2"/>
-      <c r="D408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E408" s="2"/>
-      <c r="F408" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G408" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J408" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K408" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L408" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M408" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N408" s="2"/>
-      <c r="O408" s="2"/>
-      <c r="P408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q408" s="2"/>
-      <c r="R408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF408" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG408" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH408" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI408" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AJ408" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM408" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN408" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="B409" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C409" s="2"/>
-      <c r="D409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E409" s="2"/>
-      <c r="F409" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G409" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K409" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L409" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M409" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N409" s="2"/>
-      <c r="O409" s="2"/>
-      <c r="P409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q409" s="2"/>
-      <c r="R409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF409" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG409" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH409" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI409" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL409" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM409" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN409" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B410" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C410" s="2"/>
-      <c r="D410" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E410" s="2"/>
-      <c r="F410" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K410" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L410" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M410" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N410" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O410" s="2"/>
-      <c r="P410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q410" s="2"/>
-      <c r="R410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF410" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG410" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH410" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ410" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL410" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM410" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN410" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="B411" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C411" s="2"/>
-      <c r="D411" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E411" s="2"/>
-      <c r="F411" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I411" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J411" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K411" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L411" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M411" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N411" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O411" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q411" s="2"/>
-      <c r="R411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF411" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG411" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH411" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ411" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL411" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM411" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN411" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="B412" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C412" s="2"/>
-      <c r="D412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E412" s="2"/>
-      <c r="F412" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G412" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J412" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K412" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L412" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M412" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N412" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O412" s="2"/>
-      <c r="P412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q412" s="2"/>
-      <c r="R412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X412" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y412" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Z412" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AA412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF412" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG412" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH412" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ412" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM412" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN412" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="B413" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C413" s="2"/>
-      <c r="D413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E413" s="2"/>
-      <c r="F413" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G413" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J413" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K413" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L413" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M413" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N413" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O413" s="2"/>
-      <c r="P413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q413" s="2"/>
-      <c r="R413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF413" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AG413" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH413" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ413" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM413" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN413" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="B414" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C414" s="2"/>
-      <c r="D414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E414" s="2"/>
-      <c r="F414" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G414" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J414" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K414" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L414" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M414" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N414" s="2"/>
-      <c r="O414" s="2"/>
-      <c r="P414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q414" s="2"/>
-      <c r="R414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF414" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG414" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH414" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI414" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AJ414" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM414" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN414" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="B415" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C415" s="2"/>
-      <c r="D415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E415" s="2"/>
-      <c r="F415" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G415" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K415" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L415" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M415" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N415" s="2"/>
-      <c r="O415" s="2"/>
-      <c r="P415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q415" s="2"/>
-      <c r="R415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF415" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG415" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH415" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI415" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL415" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM415" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN415" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="B416" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C416" s="2"/>
-      <c r="D416" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E416" s="2"/>
-      <c r="F416" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G416" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K416" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L416" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M416" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N416" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O416" s="2"/>
-      <c r="P416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q416" s="2"/>
-      <c r="R416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF416" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG416" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH416" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ416" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL416" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM416" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN416" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="B417" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C417" s="2"/>
-      <c r="D417" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E417" s="2"/>
-      <c r="F417" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G417" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I417" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J417" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K417" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L417" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M417" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N417" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O417" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q417" s="2"/>
-      <c r="R417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF417" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG417" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH417" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ417" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL417" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM417" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN417" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="B418" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C418" s="2"/>
-      <c r="D418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E418" s="2"/>
-      <c r="F418" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G418" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J418" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K418" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L418" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M418" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N418" s="2"/>
-      <c r="O418" s="2"/>
-      <c r="P418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q418" s="2"/>
-      <c r="R418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X418" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y418" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Z418" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AA418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF418" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AG418" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH418" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI418" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AJ418" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM418" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN418" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="B419" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C419" s="2"/>
-      <c r="D419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E419" s="2"/>
-      <c r="F419" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G419" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J419" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K419" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L419" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M419" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N419" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O419" s="2"/>
-      <c r="P419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q419" s="2"/>
-      <c r="R419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF419" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AG419" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH419" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ419" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM419" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN419" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="B420" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C420" s="2"/>
-      <c r="D420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E420" s="2"/>
-      <c r="F420" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G420" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J420" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K420" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L420" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M420" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N420" s="2"/>
-      <c r="O420" s="2"/>
-      <c r="P420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q420" s="2"/>
-      <c r="R420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF420" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AG420" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH420" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ420" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM420" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN420" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="B421" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C421" s="2"/>
-      <c r="D421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E421" s="2"/>
-      <c r="F421" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G421" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J421" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K421" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L421" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M421" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N421" s="2"/>
-      <c r="O421" s="2"/>
-      <c r="P421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q421" s="2"/>
-      <c r="R421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF421" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AG421" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH421" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ421" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM421" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN421" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="B422" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C422" s="2"/>
-      <c r="D422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E422" s="2"/>
-      <c r="F422" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G422" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J422" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K422" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L422" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M422" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N422" s="2"/>
-      <c r="O422" s="2"/>
-      <c r="P422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q422" s="2"/>
-      <c r="R422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF422" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AG422" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH422" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ422" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM422" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN422" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="B423" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C423" s="2"/>
-      <c r="D423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E423" s="2"/>
-      <c r="F423" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G423" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J423" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K423" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L423" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M423" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N423" s="2"/>
-      <c r="O423" s="2"/>
-      <c r="P423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q423" s="2"/>
-      <c r="R423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF423" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG423" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH423" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ423" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM423" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN423" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="B424" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C424" s="2"/>
-      <c r="D424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E424" s="2"/>
-      <c r="F424" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G424" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J424" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K424" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L424" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M424" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N424" s="2"/>
-      <c r="O424" s="2"/>
-      <c r="P424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q424" s="2"/>
-      <c r="R424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF424" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AG424" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH424" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI424" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AJ424" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM424" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN424" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="B425" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C425" s="2"/>
-      <c r="D425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E425" s="2"/>
-      <c r="F425" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G425" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K425" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L425" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M425" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N425" s="2"/>
-      <c r="O425" s="2"/>
-      <c r="P425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q425" s="2"/>
-      <c r="R425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF425" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG425" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH425" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI425" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL425" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM425" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN425" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="B426" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C426" s="2"/>
-      <c r="D426" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E426" s="2"/>
-      <c r="F426" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G426" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K426" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L426" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M426" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N426" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O426" s="2"/>
-      <c r="P426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q426" s="2"/>
-      <c r="R426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF426" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG426" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH426" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ426" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL426" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM426" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN426" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="B427" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C427" s="2"/>
-      <c r="D427" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E427" s="2"/>
-      <c r="F427" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G427" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I427" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J427" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K427" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L427" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M427" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N427" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O427" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q427" s="2"/>
-      <c r="R427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF427" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG427" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH427" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ427" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AK427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL427" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM427" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN427" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="B428" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C428" s="2"/>
-      <c r="D428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E428" s="2"/>
-      <c r="F428" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G428" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J428" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K428" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L428" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M428" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N428" s="2"/>
-      <c r="O428" s="2"/>
-      <c r="P428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q428" s="2"/>
-      <c r="R428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF428" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG428" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH428" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ428" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM428" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN428" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="B429" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C429" s="2"/>
-      <c r="D429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E429" s="2"/>
-      <c r="F429" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G429" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J429" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K429" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L429" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M429" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N429" s="2"/>
-      <c r="O429" s="2"/>
-      <c r="P429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q429" s="2"/>
-      <c r="R429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF429" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AG429" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH429" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ429" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM429" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN429" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="B430" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C430" s="2"/>
-      <c r="D430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E430" s="2"/>
-      <c r="F430" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G430" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J430" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K430" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L430" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M430" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N430" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O430" s="2"/>
-      <c r="P430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q430" s="2"/>
-      <c r="R430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF430" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AG430" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH430" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ430" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM430" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN430" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="B431" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C431" s="2"/>
-      <c r="D431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E431" s="2"/>
-      <c r="F431" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G431" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J431" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K431" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L431" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M431" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N431" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O431" s="2"/>
-      <c r="P431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q431" s="2"/>
-      <c r="R431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF431" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AG431" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH431" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ431" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM431" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN431" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="B432" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C432" s="2"/>
-      <c r="D432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E432" s="2"/>
-      <c r="F432" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G432" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J432" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K432" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L432" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M432" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N432" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O432" s="2"/>
-      <c r="P432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q432" s="2"/>
-      <c r="R432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF432" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AG432" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH432" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM432" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN432" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="B433" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="C433" s="2"/>
-      <c r="D433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E433" s="2"/>
-      <c r="F433" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G433" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J433" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K433" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="L433" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="M433" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="N433" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="O433" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="P433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q433" s="2"/>
-      <c r="R433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF433" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="AG433" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH433" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ433" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN433" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="B434" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="C434" s="2"/>
-      <c r="D434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E434" s="2"/>
-      <c r="F434" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G434" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J434" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K434" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="L434" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="M434" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="N434" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="O434" s="2"/>
-      <c r="P434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q434" s="2"/>
-      <c r="R434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF434" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="AG434" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH434" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI434" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="AJ434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM434" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN434" t="s" s="2">
         <v>77</v>
       </c>
     </row>
